--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_81.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_81.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,638 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62)]</t>
+          <t>[('0:02:06.506000', '0:02:28.631000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:17.360000', '0:00:20.120000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:01:05.640000', '0:01:10.540000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.54, 122.26)]</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.1846153846153846</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[(51.62, 63.9)]</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:45.760000', '0:00:55.480000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_74</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62)]</t>
+          <t>[('0:00:57.758000', '0:01:04.527000'), ('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(96.2, 113.76)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:13.500000', '0:00:21.900000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(70.38, 90.98)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -1113,92 +1128,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
